--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -8,115 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IResource\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADCB5E2-C006-4AF8-A76C-BB2449271BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168A28E8-2473-48A1-A48B-C4ECF2F47BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginData_Developer" sheetId="2" r:id="rId1"/>
-    <sheet name="LoginData_ProjectManager" sheetId="3" r:id="rId2"/>
-    <sheet name="SignUpData" sheetId="1" r:id="rId3"/>
+    <sheet name="LoginData" sheetId="2" r:id="rId1"/>
+    <sheet name="SignUpData" sheetId="1" r:id="rId2"/>
+    <sheet name="LoginData_ProjectManager" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="117">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Sioux</t>
-  </si>
-  <si>
-    <t>Nicolls</t>
-  </si>
-  <si>
-    <t>Xerxes</t>
-  </si>
-  <si>
-    <t>Huster</t>
-  </si>
-  <si>
-    <t>Barnabas</t>
-  </si>
-  <si>
-    <t>Bungey</t>
-  </si>
-  <si>
-    <t>Felike</t>
-  </si>
-  <si>
-    <t>Allman</t>
-  </si>
-  <si>
-    <t>Lisha</t>
-  </si>
-  <si>
-    <t>Iseton</t>
-  </si>
-  <si>
-    <t>Penelope</t>
-  </si>
-  <si>
-    <t>Baddam</t>
-  </si>
-  <si>
-    <t>Lulu</t>
-  </si>
-  <si>
-    <t>Kenyon</t>
-  </si>
-  <si>
-    <t>Noami</t>
-  </si>
-  <si>
-    <t>Bonaire</t>
-  </si>
-  <si>
-    <t>Marjie</t>
-  </si>
-  <si>
-    <t>Brickwood</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>Gurrado</t>
-  </si>
-  <si>
-    <t>snicolls0@qa.team</t>
-  </si>
-  <si>
-    <t>xhuster1@qa.team</t>
-  </si>
-  <si>
-    <t>bbungey2@qa.team</t>
-  </si>
-  <si>
-    <t>fallman3@qa.team</t>
-  </si>
-  <si>
-    <t>liseton4@qa.team</t>
-  </si>
-  <si>
-    <t>pbaddam5@qa.team</t>
-  </si>
-  <si>
-    <t>lkenyon6@qa.team</t>
-  </si>
-  <si>
-    <t>nbonaire7@qa.team</t>
-  </si>
-  <si>
-    <t>mbrickwood8@qa.team</t>
-  </si>
-  <si>
-    <t>agurrado9@qa.team</t>
-  </si>
-  <si>
     <t>Firstname</t>
   </si>
   <si>
@@ -129,45 +39,12 @@
     <t>ConfirmPassword</t>
   </si>
   <si>
-    <t>Abcdefg@123</t>
-  </si>
-  <si>
-    <t>Abcdefg@124</t>
-  </si>
-  <si>
-    <t>Abcdefg@125</t>
-  </si>
-  <si>
-    <t>Abcdefg@126</t>
-  </si>
-  <si>
-    <t>Abcdefg@127</t>
-  </si>
-  <si>
-    <t>Abcdefg@128</t>
-  </si>
-  <si>
-    <t>Abcdefg@129</t>
-  </si>
-  <si>
-    <t>Abcdefg@130</t>
-  </si>
-  <si>
-    <t>Abcdefg@131</t>
-  </si>
-  <si>
-    <t>Abcdefg@132</t>
-  </si>
-  <si>
     <t>TC ID</t>
   </si>
   <si>
     <t>IR-141</t>
   </si>
   <si>
-    <t> lily.pham@mailsac.com</t>
-  </si>
-  <si>
     <t>Lily</t>
   </si>
   <si>
@@ -189,9 +66,6 @@
     <t>IR-24</t>
   </si>
   <si>
-    <t>IR-131</t>
-  </si>
-  <si>
     <t>IR-142</t>
   </si>
   <si>
@@ -201,12 +75,6 @@
     <t>IR-26</t>
   </si>
   <si>
-    <t>IR-140</t>
-  </si>
-  <si>
-    <t>li.ly.pham@mailsac.com</t>
-  </si>
-  <si>
     <t>IR-139</t>
   </si>
   <si>
@@ -228,41 +96,290 @@
     <t>IR-132</t>
   </si>
   <si>
+    <t>lilypham@mailsac.com</t>
+  </si>
+  <si>
+    <t>IR-259</t>
+  </si>
+  <si>
+    <t>li..ly.pham@mailsac.com</t>
+  </si>
+  <si>
+    <t>IR-260</t>
+  </si>
+  <si>
+    <t>lily.pham12@mailsac.com</t>
+  </si>
+  <si>
+    <t>Lily@1235</t>
+  </si>
+  <si>
+    <t>IR-20B</t>
+  </si>
+  <si>
+    <t>IR-20A</t>
+  </si>
+  <si>
+    <t>vynguyen22@yopmail.com</t>
+  </si>
+  <si>
+    <t>Tuongvy@10</t>
+  </si>
+  <si>
+    <t>vy.nguyen22@yopmail.com</t>
+  </si>
+  <si>
+    <t>IR-69</t>
+  </si>
+  <si>
+    <t>vynguyen@yopmail.com</t>
+  </si>
+  <si>
+    <t>IR-134</t>
+  </si>
+  <si>
+    <t>IR-143</t>
+  </si>
+  <si>
+    <t>vynguyen22@yopmail.com@</t>
+  </si>
+  <si>
+    <t>IR-144</t>
+  </si>
+  <si>
+    <t>vynguyen22@yopmailcom</t>
+  </si>
+  <si>
+    <t>IR-145</t>
+  </si>
+  <si>
+    <t>IR-146</t>
+  </si>
+  <si>
+    <t>vy..nguyen@yopmail.com</t>
+  </si>
+  <si>
+    <t>IR-261</t>
+  </si>
+  <si>
+    <t>IR-67</t>
+  </si>
+  <si>
+    <t>IR-73</t>
+  </si>
+  <si>
+    <t>IR-147</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>IR-135</t>
+  </si>
+  <si>
+    <t>Tuongvy@20</t>
+  </si>
+  <si>
+    <t>IR-68</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
     <t>IR-21</t>
   </si>
   <si>
-    <t>lilypham@mailsac.com</t>
-  </si>
-  <si>
-    <t>IR-20</t>
-  </si>
-  <si>
-    <t>IR-259</t>
-  </si>
-  <si>
-    <t>li..ly.pham@mailsac.com</t>
-  </si>
-  <si>
-    <t>IR-260</t>
-  </si>
-  <si>
-    <t>lily.pham12@mailsac.com</t>
-  </si>
-  <si>
-    <t>Lily@1235</t>
-  </si>
-  <si>
-    <t>IR-20B</t>
-  </si>
-  <si>
-    <t>IR-20A</t>
+    <t>lilyphamm@mailsac.com</t>
+  </si>
+  <si>
+    <t>Lily1234</t>
+  </si>
+  <si>
+    <t>IR-222</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Remember me</t>
+  </si>
+  <si>
+    <t>IR-256</t>
+  </si>
+  <si>
+    <t>@smartdev.com</t>
+  </si>
+  <si>
+    <t>vynguyen22yopmail.com</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Lily Smart</t>
+  </si>
+  <si>
+    <t>IR-</t>
+  </si>
+  <si>
+    <t>IR-151</t>
+  </si>
+  <si>
+    <t>IR-29</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>IR-149</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P </t>
+  </si>
+  <si>
+    <t>@#^%$#</t>
+  </si>
+  <si>
+    <t>IR-32</t>
+  </si>
+  <si>
+    <t>abcdacgfdyngnaa</t>
+  </si>
+  <si>
+    <t>fdfgsgsfgdfgdhg</t>
+  </si>
+  <si>
+    <t>IR-271</t>
+  </si>
+  <si>
+    <t>IR-272</t>
+  </si>
+  <si>
+    <t>Hahdgfrthjjhjtqa</t>
+  </si>
+  <si>
+    <t>First and Last name</t>
+  </si>
+  <si>
+    <t>IR-35</t>
+  </si>
+  <si>
+    <t>john.doe@smart dev.com</t>
+  </si>
+  <si>
+    <t>Nale</t>
+  </si>
+  <si>
+    <t>Halen</t>
+  </si>
+  <si>
+    <t>nganltk27@qa.team </t>
+  </si>
+  <si>
+    <t>Na@12345</t>
+  </si>
+  <si>
+    <t>IR-34</t>
+  </si>
+  <si>
+    <t>IR-33</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>john.doe.smartdev@mailsac.com</t>
+  </si>
+  <si>
+    <t>Mark@789</t>
+  </si>
+  <si>
+    <t>IR-154</t>
+  </si>
+  <si>
+    <t>IR-153</t>
+  </si>
+  <si>
+    <t>john.doe@smartdev.com@</t>
+  </si>
+  <si>
+    <t>IR-278</t>
+  </si>
+  <si>
+    <t>IR-37</t>
+  </si>
+  <si>
+    <t>hellopassword</t>
+  </si>
+  <si>
+    <t>IR-36</t>
+  </si>
+  <si>
+    <t>IR-279</t>
+  </si>
+  <si>
+    <t>ngan.ltk27+3@qa.team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark </t>
+  </si>
+  <si>
+    <t>IR-281</t>
+  </si>
+  <si>
+    <t> Lily</t>
+  </si>
+  <si>
+    <t>lily.pham@1234</t>
+  </si>
+  <si>
+    <t>Baa123</t>
+  </si>
+  <si>
+    <t>IR-284</t>
+  </si>
+  <si>
+    <t>IR-286</t>
+  </si>
+  <si>
+    <t>IR-457</t>
+  </si>
+  <si>
+    <t>IR-458</t>
+  </si>
+  <si>
+    <t>IR-459</t>
+  </si>
+  <si>
+    <t>IR-460</t>
+  </si>
+  <si>
+    <t>Lily@2022</t>
+  </si>
+  <si>
+    <t>wrongpassword</t>
+  </si>
+  <si>
+    <t>Confirm Pass</t>
+  </si>
+  <si>
+    <t>lily.pham17@mailsac.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,19 +515,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -424,6 +528,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -606,7 +717,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -721,6 +832,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -765,21 +956,45 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="35"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="18" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1136,251 +1351,1269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C717B-F1EB-455D-B109-71C9942E3E0E}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <mergeCells count="3">
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="D13:D17"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C6C4A27E-9609-43C2-8484-EE22FFF8E1AA}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{9FEC787E-14D6-4B89-86E7-5312D6FF7E9A}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{48F32F83-87EC-4956-A390-8EE83B1CA03F}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{CE4DDB1F-5684-4C9B-96A2-EEA8C3FC336E}"/>
-    <hyperlink ref="B17" r:id="rId5" xr:uid="{4BF1B33B-6629-4E02-956E-3B4F48AFA7A1}"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{9FEC787E-14D6-4B89-86E7-5312D6FF7E9A}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{C6C4A27E-9609-43C2-8484-EE22FFF8E1AA}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{F4C221DA-E540-4F9C-8086-44931846D68C}"/>
+    <hyperlink ref="B20" r:id="rId4" xr:uid="{467D1F2F-3AC1-4DB0-81F7-1E7569791FD2}"/>
+    <hyperlink ref="C20" r:id="rId5" xr:uid="{22A27956-90B3-41B9-80EB-13613490FEE6}"/>
+    <hyperlink ref="C21" r:id="rId6" xr:uid="{13DA61B5-E342-4D7C-BBB8-5F8A9AC69776}"/>
+    <hyperlink ref="B21" r:id="rId7" xr:uid="{0BE843A8-22DE-4EEF-8C69-E9C370661F31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="19.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="14">
+        <v>123456</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="G20:G23"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{2C8C5204-F23D-4688-A6A7-9C0CE83498ED}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{648D872C-6844-4865-9C7E-C8C93DE5AC7C}"/>
+    <hyperlink ref="F11" r:id="rId3" xr:uid="{D59C1A98-E052-40C4-9B94-F5494BFB2B84}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{5C8032BD-6545-4747-9A01-B1736FDBA827}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{527970C4-AABA-4A7C-93FB-8BBF431551BE}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{4CE6794F-0AFC-4183-B400-B6237C1A0E84}"/>
+    <hyperlink ref="F20" r:id="rId7" xr:uid="{769F6BE5-0283-4ED8-B54F-6197342D1814}"/>
+    <hyperlink ref="D2" r:id="rId8" xr:uid="{A38092D2-56F4-41E3-9ADB-B2692E6D6FF9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EA344C-52FA-4ABD-9467-9859AFA941A7}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,421 +2624,141 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{D635401F-4564-4C0E-AB41-DFD25D4C72EF}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{0AE01704-7C18-46A4-B51F-27BF896EDC91}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{6F685284-BD8C-4F70-96F7-2F75BD48BD59}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{1A8301AF-8775-465E-B925-6FBDB618B133}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{8DE73C30-977B-40DA-9E34-357BB619B817}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{F7994063-AF22-4B83-83DA-9176EE039201}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{AAC36AE0-83C5-4F3B-A1E9-0CF39110DBC7}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{EF3092B0-4C26-4871-8137-A825C812724F}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{E3435B24-6869-40B4-B3DA-FEF5A1BA8D0A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>